--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/5 CONSTRUCCIONES EN PROCESO/5 REVISION DE PRESUPUESTO DE OBRAS.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/5 CONSTRUCCIONES EN PROCESO/5 REVISION DE PRESUPUESTO DE OBRAS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toño\Desktop\AUDITORIA FINANCIERA ENVIAR\5 PRUEBAS SUSTANTIVAS\5 CONSTRUCCIONES EN PROCESO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\5 CONSTRUCCIONES EN PROCESO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2A8814-6FD6-40F1-9274-631382DBB7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acerno_Cache_XXXXX" sheetId="2" state="veryHidden" r:id="rId1"/>
@@ -20,12 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -75,12 +70,6 @@
     <t>Puesto:</t>
   </si>
   <si>
-    <t xml:space="preserve">    Auditoria Financiera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Entidad XXXXXXX</t>
-  </si>
-  <si>
     <t>Contrato No.</t>
   </si>
   <si>
@@ -117,22 +106,28 @@
     <t>Valor en Q…</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                                                Del 01 de enero al 31 de diciembre del 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                        REVISION PRESUPUESTO DE CONSTRUCCIONES EN PROCESOS</t>
-  </si>
-  <si>
     <t xml:space="preserve">Monto Total </t>
   </si>
   <si>
     <t>E-4</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t>Auditoria Financiera</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
+  </si>
+  <si>
+    <t>REVISION PRESUPUESTO DE CONSTRUCCIONES EN PROCESOS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -327,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -399,6 +394,12 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -447,7 +448,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -508,7 +515,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="25 Conector recto"/>
+        <xdr:cNvPr id="3" name="25 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
         </xdr:cNvCxnSpPr>
@@ -556,7 +569,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="26 Conector recto"/>
+        <xdr:cNvPr id="4" name="26 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
         </xdr:cNvCxnSpPr>
@@ -604,7 +623,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="29 Conector recto"/>
+        <xdr:cNvPr id="5" name="29 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
         </xdr:cNvCxnSpPr>
@@ -652,7 +677,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="30 Conector recto"/>
+        <xdr:cNvPr id="6" name="30 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
         </xdr:cNvCxnSpPr>
@@ -700,7 +731,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="31 Triángulo isósceles"/>
+        <xdr:cNvPr id="7" name="31 Triángulo isósceles">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -745,7 +782,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="CuadroTexto 7"/>
+        <xdr:cNvPr id="8" name="CuadroTexto 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -806,7 +849,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="CuadroTexto 8"/>
+        <xdr:cNvPr id="9" name="CuadroTexto 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -856,17 +905,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1" displayName="Table1" ref="B9:I15" headerRowDxfId="1">
-  <autoFilter ref="B9:I15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B9:I15" headerRowDxfId="1">
+  <autoFilter ref="B9:I15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Contrato No." totalsRowLabel="Total" dataDxfId="0"/>
-    <tableColumn id="2" name="Fecha"/>
-    <tableColumn id="3" name="Detalle Presupuesto Materiales"/>
-    <tableColumn id="7" name="Valor en Q. "/>
-    <tableColumn id="4" name="Detalle Cotización Materiales"/>
-    <tableColumn id="8" name="Valor en Q…"/>
-    <tableColumn id="5" name="Diferencias"/>
-    <tableColumn id="6" name="Observaciones"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Contrato No." totalsRowLabel="Total" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Fecha"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Detalle Presupuesto Materiales"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Valor en Q. "/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Detalle Cotización Materiales"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Valor en Q…"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Diferencias"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Observaciones"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1168,7 +1217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1183,11 +1232,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,7 +1255,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K1" s="33" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
@@ -1216,10 +1265,11 @@
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="9"/>
+      <c r="E3" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
       <c r="H3" s="9"/>
       <c r="J3" s="2" t="s">
         <v>0</v>
@@ -1227,10 +1277,11 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="9"/>
+      <c r="E4" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
       <c r="H4" s="9"/>
       <c r="J4" s="2" t="s">
         <v>2</v>
@@ -1238,11 +1289,11 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E5" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="E5" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
       <c r="H5" s="10"/>
       <c r="J5" s="2" t="s">
         <v>1</v>
@@ -1250,11 +1301,11 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E6" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="E6" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="12"/>
       <c r="J6" s="2" t="s">
         <v>2</v>
@@ -1283,28 +1334,28 @@
     </row>
     <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="13" t="s">
+      <c r="I9" s="13" t="s">
         <v>18</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>20</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="29"/>
@@ -1317,10 +1368,10 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="29"/>
@@ -1328,10 +1379,10 @@
     <row r="11" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="27"/>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="29"/>
@@ -1339,10 +1390,10 @@
     <row r="12" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="27"/>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="29"/>
@@ -1350,10 +1401,10 @@
     <row r="13" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="27"/>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="29"/>
@@ -1361,10 +1412,10 @@
     <row r="14" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="27"/>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="29"/>
@@ -1372,7 +1423,7 @@
     <row r="15" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="27"/>
       <c r="D15" s="31" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E15" s="32"/>
       <c r="F15" s="32"/>
@@ -1549,6 +1600,12 @@
       <c r="K39" s="30"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+  </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="75" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
